--- a/cutdata.xlsx
+++ b/cutdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForrestV\Documents\python\laserQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48648D27-5BDC-42E0-8D5E-E494421A8835}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049378A3-953A-43E6-9D0A-6F3CED479FDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="825" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
+    <workbookView xWindow="30750" yWindow="825" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
-    <t>0.035 [20GA]</t>
+    <t>type</t>
   </si>
   <si>
-    <t>0.047 [18GA]</t>
+    <t>steel</t>
   </si>
   <si>
-    <t>0.060 [16GA]</t>
+    <t>speed</t>
   </si>
   <si>
-    <t>0.075 [14GA]</t>
+    <t>pierce</t>
   </si>
   <si>
-    <t>0.120 [11GA]</t>
+    <t>weight</t>
   </si>
   <si>
-    <t>STAINLESS STEEL</t>
+    <t>cost</t>
   </si>
   <si>
-    <t>0.187 [3/16]</t>
+    <t>cost_sq_foot</t>
   </si>
   <si>
-    <t>COST PER SQUARE FOOT</t>
+    <t>s</t>
   </si>
   <si>
-    <t>CUT SPEED</t>
-  </si>
-  <si>
-    <t>PIERCE TIME</t>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-  </si>
-  <si>
-    <t>MATERIAL COST</t>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,169 +410,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602AB0E5-F549-4D47-8A56-90431E725018}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>160</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2*F2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3" si="0">E3*F3</f>
+        <v>2.8329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G17" si="1">E4*F4</f>
+        <v>1.764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8379999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+      <c r="D6">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9874999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1869999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2949999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>9.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.375</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.28125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>4.5</v>
-      </c>
-      <c r="D2">
-        <v>1.4910000000000001</v>
-      </c>
-      <c r="E2">
-        <v>1.9</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
-        <v>2.8329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2.02</v>
-      </c>
-      <c r="E3">
-        <v>1.9</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>3.8379999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>5.5</v>
-      </c>
-      <c r="D4">
-        <v>2.73</v>
-      </c>
-      <c r="E4">
-        <v>1.9</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>5.1869999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>55</v>
       </c>
-      <c r="C5">
-        <v>7.5</v>
-      </c>
-      <c r="D5">
-        <v>3.15</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6">
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.66</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8216000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7.89</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>16.568999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>5.05</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>7.89</v>
-      </c>
-      <c r="E7">
-        <v>2.1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>16.568999999999999</v>
-      </c>
+      <c r="E15" s="1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8617000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15.31</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>13.779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>18.786400000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
